--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,19 +785,22 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -804,8 +811,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,11 +847,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -851,8 +861,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1028,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1029,14 +1049,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,46 +1134,49 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,57 +1304,60 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1338,7 +1378,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,19 +2139,20 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2077,11 +2164,11 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -2089,19 +2176,22 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2170,8 +2263,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2185,8 +2278,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2206,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2226,8 +2322,8 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2276,8 +2375,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2285,11 +2384,14 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2297,10 +2399,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2312,31 +2414,34 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2609,16 +2729,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2676,7 +2802,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -2688,31 +2814,34 @@
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,26 +2879,27 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
@@ -2776,19 +2907,19 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -2796,13 +2927,16 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2811,57 +2945,60 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2870,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2890,55 +3027,61 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,23 +3101,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
-        <v>100</v>
-      </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2500</v>
       </c>
       <c r="P72" s="3">
         <v>-2500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,13 +4322,16 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4123,19 +4340,19 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4144,19 +4361,22 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,19 +4542,22 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4335,26 +4565,26 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +4824,49 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,20 +4912,23 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4684,30 +4936,33 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,22 +792,25 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -814,8 +821,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -838,23 +845,26 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -864,8 +874,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1051,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,46 +1217,49 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,60 +1344,63 @@
         <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1381,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2167,11 +2254,11 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
@@ -2179,19 +2266,22 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2266,8 +2359,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2281,8 +2374,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,16 +2401,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2325,8 +2421,8 @@
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>100</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2378,8 +2477,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2387,25 +2486,28 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2417,31 +2519,34 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2732,16 +2852,19 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2805,7 +2931,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -2817,31 +2943,34 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,29 +3010,30 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
@@ -2910,19 +3041,19 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -2930,17 +3061,20 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2948,40 +3082,43 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3010,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3104,23 +3247,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-2500</v>
       </c>
       <c r="Q72" s="3">
         <v>-2500</v>
       </c>
       <c r="R72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,16 +4539,19 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4343,19 +4560,19 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -4364,19 +4581,22 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,49 +4772,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,14 +5176,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4939,30 +5191,33 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,28 +802,34 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -824,11 +837,11 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -848,40 +861,46 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1061,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1054,11 +1093,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1075,22 +1114,28 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1203,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1399,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,72 +1414,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1424,10 +1503,10 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,19 +2398,21 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2248,7 +2421,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2257,31 +2430,37 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2362,11 +2547,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2377,17 +2562,23 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,19 +2595,19 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2424,11 +2615,11 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2480,40 +2677,46 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -2522,31 +2725,37 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2807,37 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2855,16 +3094,22 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,16 +3161,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -2934,10 +3185,10 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -2946,31 +3197,37 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,40 +3270,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3053,72 +3314,84 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3150,19 +3423,19 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3170,61 +3443,73 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
-      </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,34 +3535,40 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
-      </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,37 +4351,43 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
@@ -4025,22 +4396,28 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +5055,33 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,20 +826,20 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -843,8 +850,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,21 +888,21 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -902,8 +912,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,25 +1084,28 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1120,25 +1140,28 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>3200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1509,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,31 +2486,32 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2436,11 +2523,11 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
@@ -2448,19 +2535,22 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2553,8 +2646,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2568,8 +2661,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2601,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2621,8 +2717,8 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2636,13 +2732,16 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2683,8 +2782,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2692,34 +2791,37 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2731,31 +2833,34 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,16 +2918,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2839,8 +2947,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3100,16 +3220,19 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,20 +3290,23 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
@@ -3191,7 +3317,7 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -3203,31 +3329,34 @@
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,26 +3415,26 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
@@ -3311,19 +3442,19 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3331,26 +3462,29 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3358,40 +3492,43 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3429,16 +3566,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3449,67 +3586,73 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3541,23 +3684,23 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-2500</v>
       </c>
       <c r="T72" s="3">
         <v>-2500</v>
       </c>
       <c r="U72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-500</v>
       </c>
       <c r="G76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
       </c>
       <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,25 +5189,28 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5002,19 +5219,19 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5023,19 +5240,22 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,16 +5277,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5083,8 +5304,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -5254,14 +5484,14 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5270,22 +5500,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,32 +5919,35 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5703,30 +5955,33 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,20 +836,20 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -853,8 +860,8 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,21 +901,21 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -915,8 +925,8 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,11 +1183,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,61 +1268,64 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>3200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1519,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1552,7 +1592,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,61 +1618,64 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,34 +2573,35 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2526,11 +2613,11 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
@@ -2538,19 +2625,22 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2649,8 +2742,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2664,8 +2757,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2673,13 +2766,16 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2700,16 +2796,16 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2720,8 +2816,8 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>100</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2785,8 +2884,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -2794,37 +2893,40 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2836,31 +2938,34 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,8 +3040,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2950,8 +3058,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3223,16 +3343,19 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,23 +3416,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
@@ -3320,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -3332,31 +3458,34 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3418,26 +3549,26 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
@@ -3445,19 +3576,19 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,20 +3608,20 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3495,40 +3629,43 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3569,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,61 +3738,64 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,23 +3830,23 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
       </c>
       <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,61 +4128,64 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-2500</v>
       </c>
       <c r="U72" s="3">
         <v>-2500</v>
       </c>
       <c r="V72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-500</v>
       </c>
       <c r="H76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,19 +5418,19 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5222,19 +5439,19 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -5243,19 +5460,22 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5289,8 +5510,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5475,8 +5705,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5487,14 +5717,14 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5503,22 +5733,22 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,35 +6171,38 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5958,30 +6210,33 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,23 +852,23 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -863,11 +876,11 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,35 +923,35 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,34 +1140,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1145,11 +1184,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1166,14 +1205,20 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,14 +1231,14 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1310,81 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-5200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1546,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1562,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1595,10 +1674,10 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1609,73 +1688,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2398,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,31 +2745,33 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2607,7 +2780,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2616,31 +2789,37 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2745,11 +2930,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2760,28 +2945,34 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2799,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2819,11 +3010,11 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2834,22 +3025,28 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2887,52 +3084,58 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
@@ -2941,31 +3144,37 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3043,11 +3258,11 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -3061,11 +3276,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3346,16 +3585,22 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,29 +3664,35 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
@@ -3449,10 +3700,10 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -3461,31 +3712,37 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,16 +3793,18 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3552,34 +3813,34 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3588,107 +3849,119 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
       <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3709,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
@@ -3729,73 +4002,85 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>300</v>
+      </c>
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3833,34 +4118,40 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-9100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,49 +5094,55 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-400</v>
@@ -4780,22 +5151,28 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5938,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5513,11 +5954,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -5531,11 +5972,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5708,11 +6167,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5720,8 +6179,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -5729,38 +6188,44 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6544,70 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6671,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,20 +865,20 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -882,8 +889,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,21 +939,21 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -953,8 +963,8 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,37 +1163,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1190,8 +1210,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1211,14 +1231,17 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,11 +1260,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>-200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,75 +1598,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1647,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1680,7 +1720,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,43 +2833,44 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2795,11 +2882,11 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
@@ -2807,19 +2894,22 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2936,8 +3029,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2951,8 +3044,8 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2972,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2996,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -3016,8 +3112,8 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>100</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3090,8 +3189,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3099,46 +3198,49 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -3150,31 +3252,34 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,13 +3349,16 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3264,8 +3372,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3282,8 +3390,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,31 +3645,34 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3591,16 +3711,19 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,32 +3793,35 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
@@ -3706,7 +3832,7 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
@@ -3718,31 +3844,34 @@
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,19 +3925,20 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3819,26 +3950,26 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
@@ -3846,19 +3977,19 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3884,20 +4018,20 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3905,48 +4039,51 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -3963,8 +4100,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3988,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
@@ -4008,79 +4145,85 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4124,23 +4267,23 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
       </c>
       <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4150,31 +4293,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-19500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-2500</v>
       </c>
       <c r="X72" s="3">
         <v>-2500</v>
       </c>
       <c r="Y72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>-500</v>
       </c>
       <c r="K76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
       </c>
       <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,37 +6056,40 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
       </c>
       <c r="G89" s="3">
         <v>-400</v>
       </c>
       <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5881,19 +6098,19 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -5902,19 +6119,22 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,16 +6160,17 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5960,8 +6181,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -5978,8 +6199,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6173,8 +6403,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -6185,14 +6415,14 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6201,22 +6431,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>100</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,13 +6778,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6550,64 +6796,67 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,44 +6926,47 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6722,30 +6974,33 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,13 +850,19 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -868,23 +882,23 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -892,11 +906,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,35 +962,35 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,43 +1200,49 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1213,11 +1253,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1234,19 +1274,25 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1263,14 +1309,14 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1391,90 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-5200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1657,14 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,84 +1672,90 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1690,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1723,10 +1803,10 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1737,82 +1817,94 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,82 +2617,94 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,40 +3006,42 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2876,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2885,31 +3059,37 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3162,14 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3032,11 +3218,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3047,17 +3233,23 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3071,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3095,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -3115,11 +3307,11 @@
       <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3145,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3192,61 +3390,67 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3255,31 +3459,37 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3562,14 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,10 +3577,10 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3375,11 +3591,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3393,11 +3609,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3426,16 +3642,22 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,19 +3882,25 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3674,11 +3914,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3714,16 +3954,22 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,38 +4042,44 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
-      </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
@@ -3835,10 +4087,10 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
@@ -3847,31 +4099,37 @@
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,25 +4186,27 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3953,34 +4215,34 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3989,19 +4251,25 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,70 +4280,76 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
       <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4085,11 +4359,11 @@
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -4103,11 +4377,11 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4128,19 +4402,19 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
@@ -4148,82 +4422,94 @@
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>300</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4270,45 +4556,51 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4322,11 +4614,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4902,14 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4917,79 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>200</v>
       </c>
-      <c r="Z66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-19500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-19700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-19000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-16700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-7800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,58 +5652,64 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -5346,22 +5718,28 @@
         <v>-200</v>
       </c>
       <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,22 +6601,24 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -6184,11 +6626,11 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6202,11 +6644,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6406,11 +6866,11 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -6418,8 +6878,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -6427,38 +6887,44 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>100</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>100</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -861,8 +861,8 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -1291,8 +1291,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1398,8 +1398,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,20 +895,20 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -912,8 +919,8 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,21 +978,21 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -992,8 +1002,8 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3">
+        <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,35 +1237,35 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1259,8 +1279,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1280,19 +1300,22 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1315,11 +1338,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1419,92 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>3200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,76 +1515,79 @@
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1675,76 +1712,79 @@
         <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1757,8 +1797,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1776,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1809,7 +1849,7 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
         <v>-1000</v>
       </c>
       <c r="F23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
         <v>-1000</v>
       </c>
       <c r="F26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
         <v>-1000</v>
       </c>
       <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-1000</v>
       </c>
       <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-1000</v>
       </c>
       <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,43 +3104,43 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -3065,11 +3152,11 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
@@ -3077,19 +3164,22 @@
         <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3224,8 +3317,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -3239,8 +3332,8 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3269,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3293,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
@@ -3313,8 +3409,8 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="X44" s="3">
+        <v>100</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3349,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3396,8 +3495,8 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
@@ -3405,11 +3504,14 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,43 +3519,43 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -3465,31 +3567,34 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3583,7 +3691,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3597,8 +3705,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3615,8 +3723,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3659,8 +3770,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3902,8 +4022,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3920,8 +4040,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3960,16 +4080,19 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,32 +4183,32 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
@@ -4093,7 +4219,7 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
@@ -4105,31 +4231,34 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,19 +4328,19 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4221,26 +4352,26 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
@@ -4248,19 +4379,19 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4268,13 +4399,16 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4286,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -4295,20 +4429,20 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -4316,40 +4450,43 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
       <c r="AA58" s="3">
         <v>100</v>
       </c>
       <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4365,8 +4502,8 @@
       <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -4383,8 +4520,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4408,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
@@ -4428,88 +4565,94 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
       <c r="AB60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4562,23 +4705,23 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
       </c>
       <c r="X61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,13 +4743,13 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4620,8 +4766,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5063,16 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
@@ -4923,73 +5081,76 @@
         <v>500</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
       <c r="AB66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-16700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-2500</v>
       </c>
       <c r="AA72" s="3">
         <v>-2500</v>
       </c>
       <c r="AB72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-200</v>
       </c>
       <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-1000</v>
       </c>
       <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6505,34 +6722,34 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -6541,19 +6758,19 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
@@ -6562,19 +6779,22 @@
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6614,14 +6835,14 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6632,8 +6853,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -6650,8 +6871,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6872,8 +7102,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -6884,14 +7114,14 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6900,22 +7130,22 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>100</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>100</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,22 +7516,25 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -7297,64 +7543,67 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,53 +7682,56 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -7487,30 +7739,33 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -898,20 +904,20 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -922,8 +928,8 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,21 +990,21 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -1005,8 +1014,8 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,35 +1259,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1282,8 +1301,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1303,22 +1322,25 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1341,11 +1363,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1445,95 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>3200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-4000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>100</v>
-      </c>
       <c r="AB17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1745,85 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1800,8 +1839,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1819,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1852,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1866,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1000</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1000</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1000</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3107,43 +3193,43 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
@@ -3155,11 +3241,11 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
@@ -3167,19 +3253,22 @@
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3320,8 +3412,8 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -3335,8 +3427,8 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3368,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3392,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
@@ -3412,8 +3507,8 @@
       <c r="X44" s="3">
         <v>100</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
+      <c r="Y44" s="3">
+        <v>100</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>4</v>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3451,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3498,8 +3596,8 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3507,11 +3605,14 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3522,43 +3623,43 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3570,31 +3671,34 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3694,7 +3801,7 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3708,8 +3815,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3726,8 +3833,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3759,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,8 +3883,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4025,8 +4144,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -4043,8 +4162,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4083,16 +4202,19 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4186,32 +4311,32 @@
         <v>400</v>
       </c>
       <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
@@ -4222,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -4234,31 +4359,34 @@
         <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
         <v>400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>200</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,31 +4448,32 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4355,26 +4485,26 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
@@ -4382,19 +4512,19 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
@@ -4402,17 +4532,20 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -4423,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -4432,20 +4565,20 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
       </c>
       <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4453,45 +4586,48 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
       <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
-        <v>100</v>
-      </c>
       <c r="AB58" s="3">
         <v>100</v>
       </c>
       <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -4505,8 +4641,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4523,8 +4659,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4548,16 +4684,16 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
+      <c r="Z59" s="3">
+        <v>0</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
@@ -4568,91 +4704,97 @@
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
       <c r="AC60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4708,23 +4850,23 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
       </c>
       <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4746,13 +4891,13 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4769,8 +4914,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,16 +5220,19 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
@@ -5084,73 +5241,76 @@
         <v>500</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
       <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
+        <v>600</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>300</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
       <c r="AC66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-19800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-16700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-2500</v>
       </c>
       <c r="AB72" s="3">
         <v>-2500</v>
       </c>
       <c r="AC72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,13 +6409,14 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,13 +6923,16 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>1400</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -6725,34 +6941,34 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-400</v>
       </c>
       <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -6761,19 +6977,19 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6782,19 +6998,22 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6838,11 +7058,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6856,8 +7076,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -6874,8 +7094,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,13 +7299,16 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7105,8 +7334,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -7117,14 +7346,14 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7133,22 +7362,22 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>100</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,25 +7761,28 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -7546,64 +7791,67 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,56 +7933,59 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7742,30 +7993,33 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -869,13 +873,16 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -907,20 +914,20 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -931,8 +938,8 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
@@ -955,13 +962,16 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -993,21 +1003,21 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -1017,8 +1027,8 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1262,35 +1282,35 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1304,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1366,11 +1389,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>3200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>-4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5200</v>
       </c>
-      <c r="AB17" s="3">
-        <v>100</v>
-      </c>
       <c r="AC17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1000</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
       </c>
       <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,16 +1683,17 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1736,99 +1770,105 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1000</v>
       </c>
       <c r="G21" s="3">
         <v>-1000</v>
       </c>
       <c r="H21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
       <c r="R21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
       <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1842,8 +1882,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1861,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1894,7 +1934,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1000</v>
       </c>
       <c r="G23" s="3">
         <v>-1000</v>
       </c>
       <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1000</v>
       </c>
       <c r="G26" s="3">
         <v>-1000</v>
       </c>
       <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,16 +2749,19 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3196,43 +3283,43 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -3244,11 +3331,11 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
@@ -3256,19 +3343,22 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3415,8 +3508,8 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -3430,8 +3523,8 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3466,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3490,16 +3586,16 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3510,8 +3606,8 @@
       <c r="Y44" s="3">
         <v>100</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+      <c r="Z44" s="3">
+        <v>100</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
@@ -3525,16 +3621,19 @@
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3552,13 +3651,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3599,8 +3698,8 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
@@ -3608,11 +3707,14 @@
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3626,43 +3728,43 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3674,31 +3776,34 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3804,7 +3912,7 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3818,8 +3926,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -3836,8 +3944,8 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3869,13 +3977,16 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -3886,8 +3997,8 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4147,8 +4267,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -4165,8 +4285,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4205,16 +4325,19 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,13 +4422,16 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -4314,32 +4440,32 @@
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>100</v>
-      </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
@@ -4350,7 +4476,7 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
@@ -4362,31 +4488,34 @@
         <v>200</v>
       </c>
       <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
         <v>400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA54" s="3">
         <v>200</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,34 +4579,35 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4488,26 +4619,26 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
@@ -4515,19 +4646,19 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
@@ -4535,20 +4666,23 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -4559,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -4568,20 +4702,20 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4589,49 +4723,52 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
       <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
-        <v>100</v>
-      </c>
       <c r="AC58" s="3">
         <v>100</v>
       </c>
       <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
@@ -4644,8 +4781,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -4662,8 +4799,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4687,16 +4824,16 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
+      <c r="AA59" s="3">
+        <v>0</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
@@ -4707,94 +4844,100 @@
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>300</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>200</v>
       </c>
       <c r="AC60" s="3">
         <v>200</v>
       </c>
       <c r="AD60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4853,23 +4996,23 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>300</v>
       </c>
       <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4894,13 +5040,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4917,8 +5063,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,19 +5378,22 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
@@ -5244,73 +5402,76 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
       </c>
       <c r="X66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>200</v>
       </c>
       <c r="AC66" s="3">
         <v>200</v>
       </c>
       <c r="AD66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-19800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-16700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-2500</v>
       </c>
       <c r="AC72" s="3">
         <v>-2500</v>
       </c>
       <c r="AD72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>-1000</v>
       </c>
       <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
       </c>
       <c r="P76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>-200</v>
       </c>
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
       <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,13 +6608,14 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,13 +7140,16 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -6944,34 +7161,34 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6980,19 +7197,19 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -7001,19 +7218,22 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7079,8 +7300,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -7097,8 +7318,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,13 +7529,16 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7337,8 +7567,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -7349,14 +7579,14 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7365,22 +7595,22 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>100</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,28 +8007,31 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -7794,64 +8040,67 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,59 +8185,62 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7996,30 +8248,33 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BSPK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>BSPK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,7 +892,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -917,20 +924,20 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -941,8 +948,8 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -965,13 +972,16 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -1006,21 +1016,21 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
@@ -1030,8 +1040,8 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="X10" s="3">
+        <v>0</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,19 +1282,22 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1285,35 +1305,35 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1327,8 +1347,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-      <c r="AD14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1391,8 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1392,11 +1415,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-4000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5200</v>
       </c>
-      <c r="AC17" s="3">
-        <v>100</v>
-      </c>
       <c r="AD17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
       </c>
       <c r="S18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
       <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,11 +1727,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1773,117 +1807,123 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
       </c>
       <c r="H21" s="3">
         <v>-1000</v>
       </c>
       <c r="I21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-400</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
       <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1904,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1937,7 +1977,7 @@
         <v>100</v>
       </c>
       <c r="AA22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1000</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1000</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1000</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3286,43 +3373,43 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -3334,11 +3421,11 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
@@ -3346,19 +3433,22 @@
         <v>100</v>
       </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3511,8 +3604,8 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3526,8 +3619,8 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3565,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3589,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>100</v>
@@ -3609,8 +3705,8 @@
       <c r="Z44" s="3">
         <v>100</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
+      <c r="AA44" s="3">
+        <v>100</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>4</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3636,7 +3735,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3654,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3701,8 +3800,8 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
+      <c r="AB45" s="3">
+        <v>0</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
@@ -3710,11 +3809,14 @@
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3731,43 +3833,43 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
@@ -3779,31 +3881,34 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
       <c r="AD46" s="3">
         <v>0</v>
       </c>
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3915,7 +4023,7 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3929,8 +4037,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3947,8 +4055,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3980,16 +4088,19 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -4000,8 +4111,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4270,8 +4390,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -4288,8 +4408,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4328,16 +4448,19 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,16 +4548,19 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
@@ -4443,32 +4569,32 @@
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
@@ -4479,7 +4605,7 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
@@ -4491,31 +4617,34 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>400</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
       </c>
       <c r="AA54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB54" s="3">
         <v>200</v>
       </c>
       <c r="AC54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,37 +4710,38 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4622,26 +4753,26 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
@@ -4649,19 +4780,19 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="3">
         <v>100</v>
@@ -4669,23 +4800,26 @@
       <c r="AE57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4696,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -4705,20 +4839,20 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -4726,40 +4860,43 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
       <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AC58" s="3">
-        <v>100</v>
-      </c>
       <c r="AD58" s="3">
         <v>100</v>
       </c>
       <c r="AE58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,11 +4904,11 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
@@ -4784,8 +4921,8 @@
       <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>100</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4802,8 +4939,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4827,16 +4964,16 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
+      <c r="AB59" s="3">
+        <v>0</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
@@ -4847,102 +4984,108 @@
       <c r="AE59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
       <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
         <v>300</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>200</v>
       </c>
       <c r="AD60" s="3">
         <v>200</v>
       </c>
       <c r="AE60" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4999,23 +5142,23 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
       </c>
       <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB61" s="3">
         <v>200</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5043,13 +5189,13 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -5066,8 +5212,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,22 +5536,25 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
@@ -5405,73 +5563,76 @@
         <v>500</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
       <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
       <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
       </c>
       <c r="Y66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>200</v>
       </c>
       <c r="AD66" s="3">
         <v>200</v>
       </c>
       <c r="AE66" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-19800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-16700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7800</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-2500</v>
       </c>
       <c r="AD72" s="3">
         <v>-2500</v>
       </c>
       <c r="AE72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AF72" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>-200</v>
       </c>
       <c r="AD76" s="3">
         <v>-200</v>
       </c>
       <c r="AE76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1000</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7164,34 +7381,34 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -7200,19 +7417,19 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -7221,19 +7438,22 @@
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7303,8 +7524,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -7321,8 +7542,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7570,8 +7800,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -7582,14 +7812,14 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7598,22 +7828,22 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>100</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>4</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,22 +8265,22 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -8043,64 +8289,67 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
       <c r="AD100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8203,47 +8455,47 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -8251,30 +8503,33 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
